--- a/current.xlsx
+++ b/current.xlsx
@@ -482,28 +482,28 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.762763037978767</v>
+        <v>-2.17069921494264</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.4549034429017</v>
+        <v>-2.1450304445174</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.10852419020564</v>
+        <v>-3.45783980768916</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.82436464071821</v>
+        <v>-3.19595375588762</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.46234468529448</v>
+        <v>-3.8487952534824</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.54981403122681</v>
+        <v>-1.94747046733034</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.17156744145383</v>
+        <v>-1.24767719542409</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.6313011434718</v>
+        <v>-1.6249073866903</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.90099180696106</v>
+        <v>1.15484176843153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3077577979068</v>
+        <v>-0.227067171449588</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.137890866976559</v>
+        <v>-0.797758979390311</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.0090543149599</v>
+        <v>-0.260484933995588</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0400897219928287</v>
+        <v>0.687566121949501</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.782017957173487</v>
+        <v>-0.0680578455899422</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.464073124098257</v>
+        <v>-0.329423207954923</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.100315064815258</v>
+        <v>-0.0515619122315843</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.39871679832465</v>
+        <v>-1.06050293675899</v>
       </c>
       <c r="E15" t="n">
-        <v>0.570524956276998</v>
+        <v>0.415222924017681</v>
       </c>
       <c r="F15" t="n">
-        <v>0.119474749179891</v>
+        <v>0.430027244110118</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259363263118886</v>
+        <v>0.139204766985164</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.703549256324698</v>
+        <v>-0.817655668454946</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0518447962553564</v>
+        <v>-0.0597717514317174</v>
       </c>
       <c r="J15" t="n">
-        <v>0.408703873661794</v>
+        <v>0.197944203548202</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0706801274749826</v>
+        <v>-0.113039523277154</v>
       </c>
     </row>
     <row r="16">
